--- a/biology/Zoologie/Cardiosyne/Cardiosyne.xlsx
+++ b/biology/Zoologie/Cardiosyne/Cardiosyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardiosyne est un genre fossile de coléoptères de la famille des Elateridae. Les deux espèces connues datent du Trias supérieur et ont été trouvées en Argentine.
 Les auteurs ayant décrit les deux espèces précisent que l'assignation à la famille des élatéridés n'est qu'indicative et que, de par la forme inhabituelle des élytres en forme de cœur, elles pourraient constituer une nouvelle famille.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cardiosyne est décrit en 2006 par Martins-Neto &amp; Gallego[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cardiosyne est décrit en 2006 par Martins-Neto &amp; Gallego,.
 </t>
         </is>
       </c>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cardiosyne obesa
-C'est l'espèce type de son genre. Le spécimen type est un élytre portant le numéro d'identification PULR-I 324. La localité type est Picos Gemelos (5e cycle), qui est un niveau argileux d'origine lacustre du Carnien de la formation de Los Rastros en Argentine. Cette espèce a aussi été trouvée sur le site de Rio Gualo dans la même formation géologique mais au sein d'un autre niveau (2e cycle).
-Cardiosyne elegans
-Le spécimen type est un élytre portant le numéro d'identification PULR-I 312. La localité type est Rio Gualo (5ème cycle), qui est un niveau argileux d'origine lacustre du Carnien de la formation de Los Rastros en Argentine.
+          <t>Cardiosyne obesa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'espèce type de son genre. Le spécimen type est un élytre portant le numéro d'identification PULR-I 324. La localité type est Picos Gemelos (5e cycle), qui est un niveau argileux d'origine lacustre du Carnien de la formation de Los Rastros en Argentine. Cette espèce a aussi été trouvée sur le site de Rio Gualo dans la même formation géologique mais au sein d'un autre niveau (2e cycle).
 </t>
         </is>
       </c>
@@ -574,10 +591,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cardiosyne elegans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen type est un élytre portant le numéro d'identification PULR-I 312. La localité type est Rio Gualo (5ème cycle), qui est un niveau argileux d'origine lacustre du Carnien de la formation de Los Rastros en Argentine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cardiosyne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cardiosyne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Paléoenvironnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation de Los Rastros est connue pour ses nombreux restes fossiles d'insectes, sédimentés dans des argiles lacustres laminées grises à noires, déposées au fond d'un lac assez profond. Ces insectes sont très variés, ils appartiennent aux groupes des coléoptères, hémiptères, plécoptères, blattoptères, dictyoptères, orthoptères, etc.
 </t>
